--- a/compute/data/predict/2022四川文科一分一段表数据.xlsx
+++ b/compute/data/predict/2022四川文科一分一段表数据.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61X\MyUniverse\SourceCode\PythonProjects\practice\intelligent-recommendations-system-of-college-choosing\compute\data\predict\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DD5182-A4B3-4EE7-9D13-164D1C016F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,20 +34,15 @@
     <t>lw</t>
   </si>
   <si>
-    <t>0-99</t>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,352 +58,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -428,311 +106,39 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -746,7 +152,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1017,21 +423,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D551"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E550"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +450,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>750</v>
       </c>
@@ -1058,8 +467,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>749</v>
       </c>
@@ -1072,8 +484,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>748</v>
       </c>
@@ -1086,8 +501,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>747</v>
       </c>
@@ -1100,8 +518,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>746</v>
       </c>
@@ -1114,8 +535,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>745</v>
       </c>
@@ -1128,8 +552,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>744</v>
       </c>
@@ -1142,8 +569,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>743</v>
       </c>
@@ -1156,8 +586,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>742</v>
       </c>
@@ -1170,8 +603,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>741</v>
       </c>
@@ -1184,8 +620,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>740</v>
       </c>
@@ -1198,8 +637,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>739</v>
       </c>
@@ -1212,8 +654,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>738</v>
       </c>
@@ -1226,8 +671,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>737</v>
       </c>
@@ -1240,8 +688,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>736</v>
       </c>
@@ -1254,8 +705,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>735</v>
       </c>
@@ -1268,8 +722,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>734</v>
       </c>
@@ -1282,8 +739,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>733</v>
       </c>
@@ -1296,8 +756,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>732</v>
       </c>
@@ -1310,8 +773,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>731</v>
       </c>
@@ -1324,8 +790,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>730</v>
       </c>
@@ -1338,8 +807,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>729</v>
       </c>
@@ -1352,8 +824,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>728</v>
       </c>
@@ -1366,8 +841,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>727</v>
       </c>
@@ -1380,8 +858,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>726</v>
       </c>
@@ -1394,8 +875,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>725</v>
       </c>
@@ -1408,8 +892,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>724</v>
       </c>
@@ -1422,8 +909,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>723</v>
       </c>
@@ -1436,8 +926,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>722</v>
       </c>
@@ -1450,8 +943,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>721</v>
       </c>
@@ -1464,8 +960,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>720</v>
       </c>
@@ -1478,8 +977,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>719</v>
       </c>
@@ -1492,8 +994,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>718</v>
       </c>
@@ -1506,8 +1011,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>717</v>
       </c>
@@ -1520,8 +1028,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>716</v>
       </c>
@@ -1534,8 +1045,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>715</v>
       </c>
@@ -1548,8 +1062,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>714</v>
       </c>
@@ -1562,8 +1079,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>713</v>
       </c>
@@ -1576,8 +1096,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>712</v>
       </c>
@@ -1590,8 +1113,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>711</v>
       </c>
@@ -1604,8 +1130,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>710</v>
       </c>
@@ -1618,8 +1147,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>709</v>
       </c>
@@ -1632,8 +1164,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>708</v>
       </c>
@@ -1646,8 +1181,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>707</v>
       </c>
@@ -1660,8 +1198,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>706</v>
       </c>
@@ -1674,8 +1215,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>705</v>
       </c>
@@ -1688,8 +1232,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>704</v>
       </c>
@@ -1702,8 +1249,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>703</v>
       </c>
@@ -1716,8 +1266,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>702</v>
       </c>
@@ -1730,8 +1283,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>701</v>
       </c>
@@ -1744,8 +1300,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>700</v>
       </c>
@@ -1758,8 +1317,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>699</v>
       </c>
@@ -1772,8 +1334,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>698</v>
       </c>
@@ -1786,8 +1351,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>697</v>
       </c>
@@ -1800,8 +1368,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>696</v>
       </c>
@@ -1814,8 +1385,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>695</v>
       </c>
@@ -1828,8 +1402,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>694</v>
       </c>
@@ -1842,8 +1419,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>693</v>
       </c>
@@ -1856,8 +1436,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>692</v>
       </c>
@@ -1870,8 +1453,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>691</v>
       </c>
@@ -1884,8 +1470,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>690</v>
       </c>
@@ -1898,8 +1487,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>689</v>
       </c>
@@ -1912,8 +1504,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>688</v>
       </c>
@@ -1926,8 +1521,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>687</v>
       </c>
@@ -1940,8 +1538,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>686</v>
       </c>
@@ -1954,8 +1555,11 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>685</v>
       </c>
@@ -1968,8 +1572,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>684</v>
       </c>
@@ -1982,8 +1589,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>683</v>
       </c>
@@ -1996,8 +1606,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>682</v>
       </c>
@@ -2010,8 +1623,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>681</v>
       </c>
@@ -2024,8 +1640,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>680</v>
       </c>
@@ -2038,8 +1657,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>679</v>
       </c>
@@ -2052,8 +1674,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>678</v>
       </c>
@@ -2066,8 +1691,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>677</v>
       </c>
@@ -2080,8 +1708,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>676</v>
       </c>
@@ -2094,8 +1725,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>675</v>
       </c>
@@ -2108,8 +1742,11 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>674</v>
       </c>
@@ -2122,8 +1759,11 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>673</v>
       </c>
@@ -2136,8 +1776,11 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>672</v>
       </c>
@@ -2150,8 +1793,11 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>671</v>
       </c>
@@ -2164,8 +1810,11 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>670</v>
       </c>
@@ -2178,8 +1827,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>669</v>
       </c>
@@ -2192,8 +1844,11 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>668</v>
       </c>
@@ -2206,8 +1861,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>667</v>
       </c>
@@ -2220,8 +1878,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>666</v>
       </c>
@@ -2234,8 +1895,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>665</v>
       </c>
@@ -2248,8 +1912,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>664</v>
       </c>
@@ -2262,8 +1929,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>663</v>
       </c>
@@ -2276,8 +1946,11 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>662</v>
       </c>
@@ -2290,8 +1963,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>661</v>
       </c>
@@ -2304,8 +1980,11 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>660</v>
       </c>
@@ -2318,8 +1997,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>659</v>
       </c>
@@ -2332,8 +2014,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>658</v>
       </c>
@@ -2346,8 +2031,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>657</v>
       </c>
@@ -2360,8 +2048,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>656</v>
       </c>
@@ -2374,8 +2065,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>655</v>
       </c>
@@ -2388,8 +2082,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>654</v>
       </c>
@@ -2402,8 +2099,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>653</v>
       </c>
@@ -2416,8 +2116,11 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>652</v>
       </c>
@@ -2430,8 +2133,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>651</v>
       </c>
@@ -2444,8 +2150,11 @@
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>650</v>
       </c>
@@ -2458,8 +2167,11 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>649</v>
       </c>
@@ -2472,8 +2184,11 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>648</v>
       </c>
@@ -2486,8 +2201,11 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>545</v>
       </c>
@@ -2500,8 +2218,11 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>544</v>
       </c>
@@ -2514,8 +2235,11 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>543</v>
       </c>
@@ -2528,8 +2252,11 @@
       <c r="D107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>542</v>
       </c>
@@ -2542,8 +2269,11 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>541</v>
       </c>
@@ -2556,8 +2286,11 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>540</v>
       </c>
@@ -2570,8 +2303,11 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>539</v>
       </c>
@@ -2584,8 +2320,11 @@
       <c r="D111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>538</v>
       </c>
@@ -2598,8 +2337,11 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>537</v>
       </c>
@@ -2612,8 +2354,11 @@
       <c r="D113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>536</v>
       </c>
@@ -2626,8 +2371,11 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>535</v>
       </c>
@@ -2640,8 +2388,11 @@
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>534</v>
       </c>
@@ -2654,8 +2405,11 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>533</v>
       </c>
@@ -2668,8 +2422,11 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>532</v>
       </c>
@@ -2682,8 +2439,11 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>531</v>
       </c>
@@ -2696,8 +2456,11 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>530</v>
       </c>
@@ -2710,8 +2473,11 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>529</v>
       </c>
@@ -2724,8 +2490,11 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>528</v>
       </c>
@@ -2738,8 +2507,11 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>527</v>
       </c>
@@ -2752,8 +2524,11 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>526</v>
       </c>
@@ -2766,8 +2541,11 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>525</v>
       </c>
@@ -2780,8 +2558,11 @@
       <c r="D125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>524</v>
       </c>
@@ -2794,8 +2575,11 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>523</v>
       </c>
@@ -2808,8 +2592,11 @@
       <c r="D127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>522</v>
       </c>
@@ -2822,8 +2609,11 @@
       <c r="D128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>521</v>
       </c>
@@ -2836,8 +2626,11 @@
       <c r="D129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>520</v>
       </c>
@@ -2850,8 +2643,11 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>519</v>
       </c>
@@ -2864,8 +2660,11 @@
       <c r="D131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>518</v>
       </c>
@@ -2878,8 +2677,11 @@
       <c r="D132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>517</v>
       </c>
@@ -2892,8 +2694,11 @@
       <c r="D133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>516</v>
       </c>
@@ -2906,8 +2711,11 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>515</v>
       </c>
@@ -2920,8 +2728,11 @@
       <c r="D135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>514</v>
       </c>
@@ -2934,8 +2745,11 @@
       <c r="D136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>513</v>
       </c>
@@ -2948,8 +2762,11 @@
       <c r="D137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>512</v>
       </c>
@@ -2962,8 +2779,11 @@
       <c r="D138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>511</v>
       </c>
@@ -2976,8 +2796,11 @@
       <c r="D139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>510</v>
       </c>
@@ -2990,8 +2813,11 @@
       <c r="D140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>509</v>
       </c>
@@ -3004,8 +2830,11 @@
       <c r="D141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>508</v>
       </c>
@@ -3018,8 +2847,11 @@
       <c r="D142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>507</v>
       </c>
@@ -3032,8 +2864,11 @@
       <c r="D143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>506</v>
       </c>
@@ -3046,8 +2881,11 @@
       <c r="D144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>505</v>
       </c>
@@ -3060,8 +2898,11 @@
       <c r="D145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>504</v>
       </c>
@@ -3074,8 +2915,11 @@
       <c r="D146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>503</v>
       </c>
@@ -3088,8 +2932,11 @@
       <c r="D147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>502</v>
       </c>
@@ -3102,8 +2949,11 @@
       <c r="D148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>501</v>
       </c>
@@ -3116,8 +2966,11 @@
       <c r="D149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>500</v>
       </c>
@@ -3130,8 +2983,11 @@
       <c r="D150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>499</v>
       </c>
@@ -3144,8 +3000,11 @@
       <c r="D151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>498</v>
       </c>
@@ -3158,8 +3017,11 @@
       <c r="D152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>497</v>
       </c>
@@ -3172,8 +3034,11 @@
       <c r="D153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>496</v>
       </c>
@@ -3186,8 +3051,11 @@
       <c r="D154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>495</v>
       </c>
@@ -3200,8 +3068,11 @@
       <c r="D155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>494</v>
       </c>
@@ -3214,8 +3085,11 @@
       <c r="D156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>493</v>
       </c>
@@ -3228,8 +3102,11 @@
       <c r="D157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>492</v>
       </c>
@@ -3242,8 +3119,11 @@
       <c r="D158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>491</v>
       </c>
@@ -3256,8 +3136,11 @@
       <c r="D159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>490</v>
       </c>
@@ -3270,8 +3153,11 @@
       <c r="D160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>489</v>
       </c>
@@ -3284,8 +3170,11 @@
       <c r="D161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>488</v>
       </c>
@@ -3298,8 +3187,11 @@
       <c r="D162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>487</v>
       </c>
@@ -3312,8 +3204,11 @@
       <c r="D163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>486</v>
       </c>
@@ -3326,8 +3221,11 @@
       <c r="D164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>485</v>
       </c>
@@ -3340,8 +3238,11 @@
       <c r="D165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>484</v>
       </c>
@@ -3354,8 +3255,11 @@
       <c r="D166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>483</v>
       </c>
@@ -3368,8 +3272,11 @@
       <c r="D167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>482</v>
       </c>
@@ -3382,8 +3289,11 @@
       <c r="D168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>481</v>
       </c>
@@ -3396,8 +3306,11 @@
       <c r="D169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>480</v>
       </c>
@@ -3410,8 +3323,11 @@
       <c r="D170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>479</v>
       </c>
@@ -3424,8 +3340,11 @@
       <c r="D171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>478</v>
       </c>
@@ -3438,8 +3357,11 @@
       <c r="D172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>477</v>
       </c>
@@ -3452,8 +3374,11 @@
       <c r="D173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>476</v>
       </c>
@@ -3466,8 +3391,11 @@
       <c r="D174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>475</v>
       </c>
@@ -3480,8 +3408,11 @@
       <c r="D175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>474</v>
       </c>
@@ -3494,8 +3425,11 @@
       <c r="D176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>473</v>
       </c>
@@ -3508,8 +3442,11 @@
       <c r="D177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>472</v>
       </c>
@@ -3522,8 +3459,11 @@
       <c r="D178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>471</v>
       </c>
@@ -3536,8 +3476,11 @@
       <c r="D179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>470</v>
       </c>
@@ -3550,8 +3493,11 @@
       <c r="D180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>469</v>
       </c>
@@ -3564,8 +3510,11 @@
       <c r="D181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>468</v>
       </c>
@@ -3578,8 +3527,11 @@
       <c r="D182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>467</v>
       </c>
@@ -3592,8 +3544,11 @@
       <c r="D183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>466</v>
       </c>
@@ -3606,8 +3561,11 @@
       <c r="D184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>465</v>
       </c>
@@ -3620,8 +3578,11 @@
       <c r="D185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>464</v>
       </c>
@@ -3634,8 +3595,11 @@
       <c r="D186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>463</v>
       </c>
@@ -3648,8 +3612,11 @@
       <c r="D187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>462</v>
       </c>
@@ -3662,8 +3629,11 @@
       <c r="D188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>461</v>
       </c>
@@ -3676,8 +3646,11 @@
       <c r="D189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>460</v>
       </c>
@@ -3690,8 +3663,11 @@
       <c r="D190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>459</v>
       </c>
@@ -3704,8 +3680,11 @@
       <c r="D191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>458</v>
       </c>
@@ -3718,8 +3697,11 @@
       <c r="D192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>457</v>
       </c>
@@ -3732,8 +3714,11 @@
       <c r="D193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>456</v>
       </c>
@@ -3746,8 +3731,11 @@
       <c r="D194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>455</v>
       </c>
@@ -3760,8 +3748,11 @@
       <c r="D195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>454</v>
       </c>
@@ -3774,8 +3765,11 @@
       <c r="D196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>453</v>
       </c>
@@ -3788,8 +3782,11 @@
       <c r="D197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>452</v>
       </c>
@@ -3802,8 +3799,11 @@
       <c r="D198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>451</v>
       </c>
@@ -3816,8 +3816,11 @@
       <c r="D199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>450</v>
       </c>
@@ -3830,8 +3833,11 @@
       <c r="D200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>449</v>
       </c>
@@ -3844,8 +3850,11 @@
       <c r="D201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>448</v>
       </c>
@@ -3858,8 +3867,11 @@
       <c r="D202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>447</v>
       </c>
@@ -3872,8 +3884,11 @@
       <c r="D203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>446</v>
       </c>
@@ -3886,8 +3901,11 @@
       <c r="D204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>445</v>
       </c>
@@ -3900,8 +3918,11 @@
       <c r="D205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>444</v>
       </c>
@@ -3914,8 +3935,11 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>443</v>
       </c>
@@ -3928,8 +3952,11 @@
       <c r="D207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>442</v>
       </c>
@@ -3942,8 +3969,11 @@
       <c r="D208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>441</v>
       </c>
@@ -3956,8 +3986,11 @@
       <c r="D209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>440</v>
       </c>
@@ -3970,8 +4003,11 @@
       <c r="D210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>439</v>
       </c>
@@ -3984,8 +4020,11 @@
       <c r="D211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>438</v>
       </c>
@@ -3998,8 +4037,11 @@
       <c r="D212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>437</v>
       </c>
@@ -4012,8 +4054,11 @@
       <c r="D213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>436</v>
       </c>
@@ -4026,8 +4071,11 @@
       <c r="D214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>435</v>
       </c>
@@ -4040,8 +4088,11 @@
       <c r="D215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>434</v>
       </c>
@@ -4054,8 +4105,11 @@
       <c r="D216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>433</v>
       </c>
@@ -4068,8 +4122,11 @@
       <c r="D217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>432</v>
       </c>
@@ -4082,8 +4139,11 @@
       <c r="D218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>431</v>
       </c>
@@ -4096,8 +4156,11 @@
       <c r="D219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>430</v>
       </c>
@@ -4110,8 +4173,11 @@
       <c r="D220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>429</v>
       </c>
@@ -4124,8 +4190,11 @@
       <c r="D221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>428</v>
       </c>
@@ -4138,8 +4207,11 @@
       <c r="D222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>427</v>
       </c>
@@ -4152,8 +4224,11 @@
       <c r="D223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>426</v>
       </c>
@@ -4166,8 +4241,11 @@
       <c r="D224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>425</v>
       </c>
@@ -4180,8 +4258,11 @@
       <c r="D225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>424</v>
       </c>
@@ -4194,8 +4275,11 @@
       <c r="D226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>423</v>
       </c>
@@ -4208,8 +4292,11 @@
       <c r="D227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>422</v>
       </c>
@@ -4222,8 +4309,11 @@
       <c r="D228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>421</v>
       </c>
@@ -4236,8 +4326,11 @@
       <c r="D229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>420</v>
       </c>
@@ -4250,8 +4343,11 @@
       <c r="D230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>419</v>
       </c>
@@ -4264,8 +4360,11 @@
       <c r="D231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>418</v>
       </c>
@@ -4278,8 +4377,11 @@
       <c r="D232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>417</v>
       </c>
@@ -4292,8 +4394,11 @@
       <c r="D233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>416</v>
       </c>
@@ -4306,8 +4411,11 @@
       <c r="D234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>415</v>
       </c>
@@ -4320,8 +4428,11 @@
       <c r="D235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>414</v>
       </c>
@@ -4334,8 +4445,11 @@
       <c r="D236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>413</v>
       </c>
@@ -4348,8 +4462,11 @@
       <c r="D237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>412</v>
       </c>
@@ -4362,8 +4479,11 @@
       <c r="D238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>411</v>
       </c>
@@ -4376,8 +4496,11 @@
       <c r="D239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>410</v>
       </c>
@@ -4390,8 +4513,11 @@
       <c r="D240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>409</v>
       </c>
@@ -4404,8 +4530,11 @@
       <c r="D241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>408</v>
       </c>
@@ -4418,8 +4547,11 @@
       <c r="D242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>407</v>
       </c>
@@ -4432,8 +4564,11 @@
       <c r="D243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>406</v>
       </c>
@@ -4446,8 +4581,11 @@
       <c r="D244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>405</v>
       </c>
@@ -4460,8 +4598,11 @@
       <c r="D245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>404</v>
       </c>
@@ -4474,8 +4615,11 @@
       <c r="D246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>403</v>
       </c>
@@ -4488,8 +4632,11 @@
       <c r="D247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>402</v>
       </c>
@@ -4502,8 +4649,11 @@
       <c r="D248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>401</v>
       </c>
@@ -4516,8 +4666,11 @@
       <c r="D249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>400</v>
       </c>
@@ -4530,8 +4683,11 @@
       <c r="D250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>399</v>
       </c>
@@ -4544,8 +4700,11 @@
       <c r="D251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>398</v>
       </c>
@@ -4558,8 +4717,11 @@
       <c r="D252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>397</v>
       </c>
@@ -4572,8 +4734,11 @@
       <c r="D253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>396</v>
       </c>
@@ -4586,8 +4751,11 @@
       <c r="D254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>395</v>
       </c>
@@ -4600,8 +4768,11 @@
       <c r="D255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>394</v>
       </c>
@@ -4614,8 +4785,11 @@
       <c r="D256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>393</v>
       </c>
@@ -4628,8 +4802,11 @@
       <c r="D257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>392</v>
       </c>
@@ -4642,8 +4819,11 @@
       <c r="D258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>391</v>
       </c>
@@ -4656,8 +4836,11 @@
       <c r="D259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>390</v>
       </c>
@@ -4670,8 +4853,11 @@
       <c r="D260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>389</v>
       </c>
@@ -4684,8 +4870,11 @@
       <c r="D261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>388</v>
       </c>
@@ -4698,8 +4887,11 @@
       <c r="D262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>387</v>
       </c>
@@ -4712,8 +4904,11 @@
       <c r="D263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>386</v>
       </c>
@@ -4726,8 +4921,11 @@
       <c r="D264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>385</v>
       </c>
@@ -4740,8 +4938,11 @@
       <c r="D265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>384</v>
       </c>
@@ -4754,8 +4955,11 @@
       <c r="D266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>383</v>
       </c>
@@ -4768,8 +4972,11 @@
       <c r="D267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>382</v>
       </c>
@@ -4782,8 +4989,11 @@
       <c r="D268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>381</v>
       </c>
@@ -4796,8 +5006,11 @@
       <c r="D269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>380</v>
       </c>
@@ -4810,8 +5023,11 @@
       <c r="D270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>379</v>
       </c>
@@ -4824,8 +5040,11 @@
       <c r="D271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>378</v>
       </c>
@@ -4838,8 +5057,11 @@
       <c r="D272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>377</v>
       </c>
@@ -4852,8 +5074,11 @@
       <c r="D273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>376</v>
       </c>
@@ -4866,8 +5091,11 @@
       <c r="D274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>375</v>
       </c>
@@ -4880,8 +5108,11 @@
       <c r="D275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>374</v>
       </c>
@@ -4894,8 +5125,11 @@
       <c r="D276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>373</v>
       </c>
@@ -4908,8 +5142,11 @@
       <c r="D277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="E277">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>372</v>
       </c>
@@ -4922,8 +5159,11 @@
       <c r="D278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="E278">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>371</v>
       </c>
@@ -4936,8 +5176,11 @@
       <c r="D279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="E279">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>370</v>
       </c>
@@ -4950,8 +5193,11 @@
       <c r="D280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="E280">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>369</v>
       </c>
@@ -4964,8 +5210,11 @@
       <c r="D281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="E281">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>368</v>
       </c>
@@ -4978,8 +5227,11 @@
       <c r="D282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>367</v>
       </c>
@@ -4992,8 +5244,11 @@
       <c r="D283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="E283">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>366</v>
       </c>
@@ -5006,8 +5261,11 @@
       <c r="D284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>365</v>
       </c>
@@ -5020,8 +5278,11 @@
       <c r="D285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="E285">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>364</v>
       </c>
@@ -5034,8 +5295,11 @@
       <c r="D286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="E286">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>363</v>
       </c>
@@ -5048,8 +5312,11 @@
       <c r="D287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="E287">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>362</v>
       </c>
@@ -5062,8 +5329,11 @@
       <c r="D288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>361</v>
       </c>
@@ -5076,8 +5346,11 @@
       <c r="D289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>360</v>
       </c>
@@ -5090,8 +5363,11 @@
       <c r="D290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>359</v>
       </c>
@@ -5104,8 +5380,11 @@
       <c r="D291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>358</v>
       </c>
@@ -5118,8 +5397,11 @@
       <c r="D292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>357</v>
       </c>
@@ -5132,8 +5414,11 @@
       <c r="D293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>356</v>
       </c>
@@ -5146,8 +5431,11 @@
       <c r="D294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>355</v>
       </c>
@@ -5160,8 +5448,11 @@
       <c r="D295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>354</v>
       </c>
@@ -5174,8 +5465,11 @@
       <c r="D296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="E296">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>353</v>
       </c>
@@ -5188,8 +5482,11 @@
       <c r="D297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>352</v>
       </c>
@@ -5202,8 +5499,11 @@
       <c r="D298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>351</v>
       </c>
@@ -5216,8 +5516,11 @@
       <c r="D299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>350</v>
       </c>
@@ -5230,8 +5533,11 @@
       <c r="D300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="E300">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>349</v>
       </c>
@@ -5244,8 +5550,11 @@
       <c r="D301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="E301">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>348</v>
       </c>
@@ -5258,8 +5567,11 @@
       <c r="D302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="E302">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>347</v>
       </c>
@@ -5272,8 +5584,11 @@
       <c r="D303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="E303">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>346</v>
       </c>
@@ -5286,8 +5601,11 @@
       <c r="D304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>345</v>
       </c>
@@ -5300,8 +5618,11 @@
       <c r="D305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>344</v>
       </c>
@@ -5314,8 +5635,11 @@
       <c r="D306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>343</v>
       </c>
@@ -5328,8 +5652,11 @@
       <c r="D307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>342</v>
       </c>
@@ -5342,8 +5669,11 @@
       <c r="D308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>341</v>
       </c>
@@ -5356,8 +5686,11 @@
       <c r="D309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="E309">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>340</v>
       </c>
@@ -5370,8 +5703,11 @@
       <c r="D310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="E310">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>339</v>
       </c>
@@ -5384,8 +5720,11 @@
       <c r="D311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="E311">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>338</v>
       </c>
@@ -5398,8 +5737,11 @@
       <c r="D312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
+      <c r="E312">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>337</v>
       </c>
@@ -5412,8 +5754,11 @@
       <c r="D313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="E313">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>336</v>
       </c>
@@ -5426,8 +5771,11 @@
       <c r="D314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="E314">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>335</v>
       </c>
@@ -5440,8 +5788,11 @@
       <c r="D315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="E315">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>334</v>
       </c>
@@ -5454,8 +5805,11 @@
       <c r="D316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="E316">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>333</v>
       </c>
@@ -5468,8 +5822,11 @@
       <c r="D317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="E317">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>332</v>
       </c>
@@ -5482,8 +5839,11 @@
       <c r="D318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="E318">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>331</v>
       </c>
@@ -5496,8 +5856,11 @@
       <c r="D319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="E319">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>330</v>
       </c>
@@ -5510,8 +5873,11 @@
       <c r="D320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="E320">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>329</v>
       </c>
@@ -5524,8 +5890,11 @@
       <c r="D321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="E321">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>328</v>
       </c>
@@ -5538,8 +5907,11 @@
       <c r="D322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="E322">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>327</v>
       </c>
@@ -5552,8 +5924,11 @@
       <c r="D323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="E323">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>326</v>
       </c>
@@ -5566,8 +5941,11 @@
       <c r="D324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="E324">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -5580,8 +5958,11 @@
       <c r="D325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="E325">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -5594,8 +5975,11 @@
       <c r="D326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="E326">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>323</v>
       </c>
@@ -5608,8 +5992,11 @@
       <c r="D327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="E327">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>322</v>
       </c>
@@ -5622,8 +6009,11 @@
       <c r="D328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="E328">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>321</v>
       </c>
@@ -5636,8 +6026,11 @@
       <c r="D329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="E329">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>320</v>
       </c>
@@ -5650,8 +6043,11 @@
       <c r="D330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="E330">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>319</v>
       </c>
@@ -5664,8 +6060,11 @@
       <c r="D331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="E331">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>318</v>
       </c>
@@ -5678,8 +6077,11 @@
       <c r="D332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="E332">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>317</v>
       </c>
@@ -5692,8 +6094,11 @@
       <c r="D333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="E333">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>316</v>
       </c>
@@ -5706,8 +6111,11 @@
       <c r="D334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="E334">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>315</v>
       </c>
@@ -5720,8 +6128,11 @@
       <c r="D335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="E335">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>314</v>
       </c>
@@ -5734,8 +6145,11 @@
       <c r="D336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="E336">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>313</v>
       </c>
@@ -5748,8 +6162,11 @@
       <c r="D337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>312</v>
       </c>
@@ -5762,8 +6179,11 @@
       <c r="D338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="E338">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>311</v>
       </c>
@@ -5776,8 +6196,11 @@
       <c r="D339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="E339">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>310</v>
       </c>
@@ -5790,8 +6213,11 @@
       <c r="D340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="E340">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>309</v>
       </c>
@@ -5804,8 +6230,11 @@
       <c r="D341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>308</v>
       </c>
@@ -5818,8 +6247,11 @@
       <c r="D342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="E342">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>307</v>
       </c>
@@ -5832,8 +6264,11 @@
       <c r="D343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="E343">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>306</v>
       </c>
@@ -5846,8 +6281,11 @@
       <c r="D344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="E344">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>305</v>
       </c>
@@ -5860,8 +6298,11 @@
       <c r="D345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="E345">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>304</v>
       </c>
@@ -5874,8 +6315,11 @@
       <c r="D346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="E346">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>303</v>
       </c>
@@ -5888,8 +6332,11 @@
       <c r="D347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="E347">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>302</v>
       </c>
@@ -5902,8 +6349,11 @@
       <c r="D348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="E348">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>301</v>
       </c>
@@ -5916,8 +6366,11 @@
       <c r="D349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="E349">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>300</v>
       </c>
@@ -5930,8 +6383,11 @@
       <c r="D350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>299</v>
       </c>
@@ -5944,8 +6400,11 @@
       <c r="D351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="E351">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>298</v>
       </c>
@@ -5958,8 +6417,11 @@
       <c r="D352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="E352">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>297</v>
       </c>
@@ -5972,8 +6434,11 @@
       <c r="D353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="E353">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>296</v>
       </c>
@@ -5986,8 +6451,11 @@
       <c r="D354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="E354">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>295</v>
       </c>
@@ -6000,8 +6468,11 @@
       <c r="D355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="E355">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>294</v>
       </c>
@@ -6014,8 +6485,11 @@
       <c r="D356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="E356">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>293</v>
       </c>
@@ -6028,8 +6502,11 @@
       <c r="D357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="E357">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>292</v>
       </c>
@@ -6042,8 +6519,11 @@
       <c r="D358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="E358">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>291</v>
       </c>
@@ -6056,8 +6536,11 @@
       <c r="D359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="E359">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>290</v>
       </c>
@@ -6070,8 +6553,11 @@
       <c r="D360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="E360">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>289</v>
       </c>
@@ -6084,8 +6570,11 @@
       <c r="D361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="E361">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>288</v>
       </c>
@@ -6098,8 +6587,11 @@
       <c r="D362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="E362">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>287</v>
       </c>
@@ -6112,8 +6604,11 @@
       <c r="D363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="E363">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>286</v>
       </c>
@@ -6126,8 +6621,11 @@
       <c r="D364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="E364">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>285</v>
       </c>
@@ -6140,8 +6638,11 @@
       <c r="D365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="E365">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>284</v>
       </c>
@@ -6154,8 +6655,11 @@
       <c r="D366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="E366">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>283</v>
       </c>
@@ -6168,8 +6672,11 @@
       <c r="D367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="E367">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>282</v>
       </c>
@@ -6182,8 +6689,11 @@
       <c r="D368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>281</v>
       </c>
@@ -6196,8 +6706,11 @@
       <c r="D369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>280</v>
       </c>
@@ -6210,8 +6723,11 @@
       <c r="D370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>279</v>
       </c>
@@ -6224,8 +6740,11 @@
       <c r="D371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>278</v>
       </c>
@@ -6238,8 +6757,11 @@
       <c r="D372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="E372">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>277</v>
       </c>
@@ -6252,8 +6774,11 @@
       <c r="D373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="E373">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>276</v>
       </c>
@@ -6266,8 +6791,11 @@
       <c r="D374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:4">
+      <c r="E374">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>275</v>
       </c>
@@ -6280,8 +6808,11 @@
       <c r="D375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="E375">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>274</v>
       </c>
@@ -6294,8 +6825,11 @@
       <c r="D376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="E376">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>273</v>
       </c>
@@ -6308,8 +6842,11 @@
       <c r="D377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="E377">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>272</v>
       </c>
@@ -6322,8 +6859,11 @@
       <c r="D378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:4">
+      <c r="E378">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>271</v>
       </c>
@@ -6336,8 +6876,11 @@
       <c r="D379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:4">
+      <c r="E379">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>270</v>
       </c>
@@ -6350,8 +6893,11 @@
       <c r="D380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="E380">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>269</v>
       </c>
@@ -6364,8 +6910,11 @@
       <c r="D381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:4">
+      <c r="E381">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>268</v>
       </c>
@@ -6378,8 +6927,11 @@
       <c r="D382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="E382">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>267</v>
       </c>
@@ -6392,8 +6944,11 @@
       <c r="D383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:4">
+      <c r="E383">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>266</v>
       </c>
@@ -6406,8 +6961,11 @@
       <c r="D384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="E384">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>265</v>
       </c>
@@ -6420,8 +6978,11 @@
       <c r="D385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="E385">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>264</v>
       </c>
@@ -6434,8 +6995,11 @@
       <c r="D386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="E386">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>263</v>
       </c>
@@ -6448,8 +7012,11 @@
       <c r="D387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="E387">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>262</v>
       </c>
@@ -6462,8 +7029,11 @@
       <c r="D388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="E388">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>261</v>
       </c>
@@ -6476,8 +7046,11 @@
       <c r="D389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="E389">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>260</v>
       </c>
@@ -6490,8 +7063,11 @@
       <c r="D390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="E390">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>259</v>
       </c>
@@ -6504,8 +7080,11 @@
       <c r="D391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="E391">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>258</v>
       </c>
@@ -6518,8 +7097,11 @@
       <c r="D392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="E392">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>257</v>
       </c>
@@ -6532,8 +7114,11 @@
       <c r="D393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="E393">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>256</v>
       </c>
@@ -6546,8 +7131,11 @@
       <c r="D394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="E394">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>255</v>
       </c>
@@ -6560,8 +7148,11 @@
       <c r="D395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="E395">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>254</v>
       </c>
@@ -6574,8 +7165,11 @@
       <c r="D396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="E396">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>253</v>
       </c>
@@ -6588,8 +7182,11 @@
       <c r="D397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="E397">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>252</v>
       </c>
@@ -6602,8 +7199,11 @@
       <c r="D398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="E398">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>251</v>
       </c>
@@ -6616,8 +7216,11 @@
       <c r="D399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="E399">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>250</v>
       </c>
@@ -6630,8 +7233,11 @@
       <c r="D400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="E400">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>249</v>
       </c>
@@ -6644,8 +7250,11 @@
       <c r="D401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="E401">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>248</v>
       </c>
@@ -6658,8 +7267,11 @@
       <c r="D402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="E402">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>247</v>
       </c>
@@ -6672,8 +7284,11 @@
       <c r="D403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="E403">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>246</v>
       </c>
@@ -6686,8 +7301,11 @@
       <c r="D404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="E404">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>245</v>
       </c>
@@ -6700,8 +7318,11 @@
       <c r="D405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="E405">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>244</v>
       </c>
@@ -6714,8 +7335,11 @@
       <c r="D406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="E406">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>243</v>
       </c>
@@ -6728,8 +7352,11 @@
       <c r="D407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="E407">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>242</v>
       </c>
@@ -6742,8 +7369,11 @@
       <c r="D408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="E408">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>241</v>
       </c>
@@ -6756,8 +7386,11 @@
       <c r="D409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="E409">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>240</v>
       </c>
@@ -6770,8 +7403,11 @@
       <c r="D410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="E410">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>239</v>
       </c>
@@ -6784,8 +7420,11 @@
       <c r="D411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="E411">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>238</v>
       </c>
@@ -6798,8 +7437,11 @@
       <c r="D412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:4">
+      <c r="E412">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>237</v>
       </c>
@@ -6812,8 +7454,11 @@
       <c r="D413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:4">
+      <c r="E413">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>236</v>
       </c>
@@ -6826,8 +7471,11 @@
       <c r="D414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:4">
+      <c r="E414">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>235</v>
       </c>
@@ -6840,8 +7488,11 @@
       <c r="D415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="E415">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>234</v>
       </c>
@@ -6854,8 +7505,11 @@
       <c r="D416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="E416">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>233</v>
       </c>
@@ -6868,8 +7522,11 @@
       <c r="D417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="E417">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>232</v>
       </c>
@@ -6882,8 +7539,11 @@
       <c r="D418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="E418">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>231</v>
       </c>
@@ -6896,8 +7556,11 @@
       <c r="D419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="E419">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>230</v>
       </c>
@@ -6910,8 +7573,11 @@
       <c r="D420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="E420">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>229</v>
       </c>
@@ -6924,8 +7590,11 @@
       <c r="D421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:4">
+      <c r="E421">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>228</v>
       </c>
@@ -6938,8 +7607,11 @@
       <c r="D422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="E422">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>227</v>
       </c>
@@ -6952,8 +7624,11 @@
       <c r="D423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:4">
+      <c r="E423">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>226</v>
       </c>
@@ -6966,8 +7641,11 @@
       <c r="D424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="E424">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>225</v>
       </c>
@@ -6980,8 +7658,11 @@
       <c r="D425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="E425">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>224</v>
       </c>
@@ -6994,8 +7675,11 @@
       <c r="D426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="E426">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>223</v>
       </c>
@@ -7008,8 +7692,11 @@
       <c r="D427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="E427">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>222</v>
       </c>
@@ -7022,8 +7709,11 @@
       <c r="D428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:4">
+      <c r="E428">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>221</v>
       </c>
@@ -7036,8 +7726,11 @@
       <c r="D429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:4">
+      <c r="E429">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>220</v>
       </c>
@@ -7050,8 +7743,11 @@
       <c r="D430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:4">
+      <c r="E430">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>219</v>
       </c>
@@ -7064,8 +7760,11 @@
       <c r="D431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:4">
+      <c r="E431">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>218</v>
       </c>
@@ -7078,8 +7777,11 @@
       <c r="D432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="E432">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>217</v>
       </c>
@@ -7092,8 +7794,11 @@
       <c r="D433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="E433">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>216</v>
       </c>
@@ -7106,8 +7811,11 @@
       <c r="D434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:4">
+      <c r="E434">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>215</v>
       </c>
@@ -7120,8 +7828,11 @@
       <c r="D435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="E435">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>214</v>
       </c>
@@ -7134,8 +7845,11 @@
       <c r="D436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="E436">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>213</v>
       </c>
@@ -7148,8 +7862,11 @@
       <c r="D437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="E437">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>212</v>
       </c>
@@ -7162,8 +7879,11 @@
       <c r="D438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:4">
+      <c r="E438">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>211</v>
       </c>
@@ -7176,8 +7896,11 @@
       <c r="D439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="E439">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>210</v>
       </c>
@@ -7190,8 +7913,11 @@
       <c r="D440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:4">
+      <c r="E440">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>209</v>
       </c>
@@ -7204,8 +7930,11 @@
       <c r="D441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="E441">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>208</v>
       </c>
@@ -7218,8 +7947,11 @@
       <c r="D442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:4">
+      <c r="E442">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>207</v>
       </c>
@@ -7232,8 +7964,11 @@
       <c r="D443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:4">
+      <c r="E443">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>206</v>
       </c>
@@ -7246,8 +7981,11 @@
       <c r="D444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:4">
+      <c r="E444">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>205</v>
       </c>
@@ -7260,8 +7998,11 @@
       <c r="D445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
+      <c r="E445">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>204</v>
       </c>
@@ -7274,8 +8015,11 @@
       <c r="D446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:4">
+      <c r="E446">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>203</v>
       </c>
@@ -7288,8 +8032,11 @@
       <c r="D447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:4">
+      <c r="E447">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>202</v>
       </c>
@@ -7302,8 +8049,11 @@
       <c r="D448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:4">
+      <c r="E448">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>201</v>
       </c>
@@ -7316,8 +8066,11 @@
       <c r="D449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="E449">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>200</v>
       </c>
@@ -7330,8 +8083,11 @@
       <c r="D450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:4">
+      <c r="E450">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>199</v>
       </c>
@@ -7344,8 +8100,11 @@
       <c r="D451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:4">
+      <c r="E451">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>198</v>
       </c>
@@ -7358,8 +8117,11 @@
       <c r="D452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:4">
+      <c r="E452">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>197</v>
       </c>
@@ -7372,8 +8134,11 @@
       <c r="D453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:4">
+      <c r="E453">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>196</v>
       </c>
@@ -7386,8 +8151,11 @@
       <c r="D454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:4">
+      <c r="E454">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>195</v>
       </c>
@@ -7400,8 +8168,11 @@
       <c r="D455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:4">
+      <c r="E455">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>194</v>
       </c>
@@ -7414,8 +8185,11 @@
       <c r="D456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:4">
+      <c r="E456">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>193</v>
       </c>
@@ -7428,8 +8202,11 @@
       <c r="D457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:4">
+      <c r="E457">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>192</v>
       </c>
@@ -7442,8 +8219,11 @@
       <c r="D458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:4">
+      <c r="E458">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>191</v>
       </c>
@@ -7456,8 +8236,11 @@
       <c r="D459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:4">
+      <c r="E459">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>190</v>
       </c>
@@ -7470,8 +8253,11 @@
       <c r="D460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:4">
+      <c r="E460">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>189</v>
       </c>
@@ -7484,8 +8270,11 @@
       <c r="D461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:4">
+      <c r="E461">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>188</v>
       </c>
@@ -7498,8 +8287,11 @@
       <c r="D462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:4">
+      <c r="E462">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>187</v>
       </c>
@@ -7512,8 +8304,11 @@
       <c r="D463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:4">
+      <c r="E463">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>186</v>
       </c>
@@ -7526,8 +8321,11 @@
       <c r="D464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:4">
+      <c r="E464">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>185</v>
       </c>
@@ -7540,8 +8338,11 @@
       <c r="D465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:4">
+      <c r="E465">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>184</v>
       </c>
@@ -7554,8 +8355,11 @@
       <c r="D466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:4">
+      <c r="E466">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>183</v>
       </c>
@@ -7568,8 +8372,11 @@
       <c r="D467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="E467">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>182</v>
       </c>
@@ -7582,8 +8389,11 @@
       <c r="D468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="E468">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>181</v>
       </c>
@@ -7596,8 +8406,11 @@
       <c r="D469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="E469">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>180</v>
       </c>
@@ -7610,8 +8423,11 @@
       <c r="D470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="E470">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>179</v>
       </c>
@@ -7624,8 +8440,11 @@
       <c r="D471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:4">
+      <c r="E471">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>178</v>
       </c>
@@ -7638,8 +8457,11 @@
       <c r="D472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:4">
+      <c r="E472">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>177</v>
       </c>
@@ -7652,8 +8474,11 @@
       <c r="D473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="E473">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>176</v>
       </c>
@@ -7666,8 +8491,11 @@
       <c r="D474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="E474">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>175</v>
       </c>
@@ -7680,8 +8508,11 @@
       <c r="D475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:4">
+      <c r="E475">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>174</v>
       </c>
@@ -7694,8 +8525,11 @@
       <c r="D476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:4">
+      <c r="E476">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>173</v>
       </c>
@@ -7708,8 +8542,11 @@
       <c r="D477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="E477">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>172</v>
       </c>
@@ -7722,8 +8559,11 @@
       <c r="D478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="E478">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>171</v>
       </c>
@@ -7736,8 +8576,11 @@
       <c r="D479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="E479">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>170</v>
       </c>
@@ -7750,8 +8593,11 @@
       <c r="D480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:4">
+      <c r="E480">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>169</v>
       </c>
@@ -7764,8 +8610,11 @@
       <c r="D481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="E481">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>168</v>
       </c>
@@ -7778,8 +8627,11 @@
       <c r="D482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:4">
+      <c r="E482">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>167</v>
       </c>
@@ -7792,8 +8644,11 @@
       <c r="D483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:4">
+      <c r="E483">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>166</v>
       </c>
@@ -7806,8 +8661,11 @@
       <c r="D484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:4">
+      <c r="E484">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>165</v>
       </c>
@@ -7820,8 +8678,11 @@
       <c r="D485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="E485">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>164</v>
       </c>
@@ -7834,8 +8695,11 @@
       <c r="D486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:4">
+      <c r="E486">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>163</v>
       </c>
@@ -7848,8 +8712,11 @@
       <c r="D487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:4">
+      <c r="E487">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>162</v>
       </c>
@@ -7862,8 +8729,11 @@
       <c r="D488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:4">
+      <c r="E488">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>161</v>
       </c>
@@ -7876,8 +8746,11 @@
       <c r="D489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:4">
+      <c r="E489">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>160</v>
       </c>
@@ -7890,8 +8763,11 @@
       <c r="D490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:4">
+      <c r="E490">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>159</v>
       </c>
@@ -7904,8 +8780,11 @@
       <c r="D491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:4">
+      <c r="E491">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>158</v>
       </c>
@@ -7918,8 +8797,11 @@
       <c r="D492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:4">
+      <c r="E492">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>157</v>
       </c>
@@ -7932,8 +8814,11 @@
       <c r="D493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:4">
+      <c r="E493">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>156</v>
       </c>
@@ -7946,8 +8831,11 @@
       <c r="D494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:4">
+      <c r="E494">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>155</v>
       </c>
@@ -7960,8 +8848,11 @@
       <c r="D495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:4">
+      <c r="E495">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>154</v>
       </c>
@@ -7974,8 +8865,11 @@
       <c r="D496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:4">
+      <c r="E496">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>153</v>
       </c>
@@ -7988,8 +8882,11 @@
       <c r="D497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:4">
+      <c r="E497">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>152</v>
       </c>
@@ -8002,8 +8899,11 @@
       <c r="D498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:4">
+      <c r="E498">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>151</v>
       </c>
@@ -8016,8 +8916,11 @@
       <c r="D499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:4">
+      <c r="E499">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>150</v>
       </c>
@@ -8030,8 +8933,11 @@
       <c r="D500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:4">
+      <c r="E500">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>149</v>
       </c>
@@ -8044,8 +8950,11 @@
       <c r="D501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:4">
+      <c r="E501">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>148</v>
       </c>
@@ -8058,8 +8967,11 @@
       <c r="D502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:4">
+      <c r="E502">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>147</v>
       </c>
@@ -8072,8 +8984,11 @@
       <c r="D503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:4">
+      <c r="E503">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>146</v>
       </c>
@@ -8086,8 +9001,11 @@
       <c r="D504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:4">
+      <c r="E504">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>145</v>
       </c>
@@ -8100,8 +9018,11 @@
       <c r="D505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:4">
+      <c r="E505">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>144</v>
       </c>
@@ -8114,8 +9035,11 @@
       <c r="D506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:4">
+      <c r="E506">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>143</v>
       </c>
@@ -8128,8 +9052,11 @@
       <c r="D507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:4">
+      <c r="E507">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>142</v>
       </c>
@@ -8142,8 +9069,11 @@
       <c r="D508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:4">
+      <c r="E508">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>141</v>
       </c>
@@ -8156,8 +9086,11 @@
       <c r="D509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:4">
+      <c r="E509">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>140</v>
       </c>
@@ -8170,8 +9103,11 @@
       <c r="D510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:4">
+      <c r="E510">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>139</v>
       </c>
@@ -8184,8 +9120,11 @@
       <c r="D511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:4">
+      <c r="E511">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>138</v>
       </c>
@@ -8198,8 +9137,11 @@
       <c r="D512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:4">
+      <c r="E512">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>137</v>
       </c>
@@ -8212,8 +9154,11 @@
       <c r="D513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:4">
+      <c r="E513">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>136</v>
       </c>
@@ -8226,8 +9171,11 @@
       <c r="D514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:4">
+      <c r="E514">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>135</v>
       </c>
@@ -8240,8 +9188,11 @@
       <c r="D515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:4">
+      <c r="E515">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>134</v>
       </c>
@@ -8254,8 +9205,11 @@
       <c r="D516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:4">
+      <c r="E516">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>133</v>
       </c>
@@ -8268,8 +9222,11 @@
       <c r="D517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:4">
+      <c r="E517">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>132</v>
       </c>
@@ -8282,8 +9239,11 @@
       <c r="D518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:4">
+      <c r="E518">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>131</v>
       </c>
@@ -8296,8 +9256,11 @@
       <c r="D519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:4">
+      <c r="E519">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>130</v>
       </c>
@@ -8310,8 +9273,11 @@
       <c r="D520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:4">
+      <c r="E520">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>129</v>
       </c>
@@ -8324,8 +9290,11 @@
       <c r="D521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:4">
+      <c r="E521">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>128</v>
       </c>
@@ -8338,8 +9307,11 @@
       <c r="D522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:4">
+      <c r="E522">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>127</v>
       </c>
@@ -8352,8 +9324,11 @@
       <c r="D523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:4">
+      <c r="E523">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>126</v>
       </c>
@@ -8366,8 +9341,11 @@
       <c r="D524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:4">
+      <c r="E524">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>125</v>
       </c>
@@ -8380,8 +9358,11 @@
       <c r="D525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:4">
+      <c r="E525">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>124</v>
       </c>
@@ -8394,8 +9375,11 @@
       <c r="D526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:4">
+      <c r="E526">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>123</v>
       </c>
@@ -8408,8 +9392,11 @@
       <c r="D527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:4">
+      <c r="E527">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>122</v>
       </c>
@@ -8422,8 +9409,11 @@
       <c r="D528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:4">
+      <c r="E528">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>121</v>
       </c>
@@ -8436,8 +9426,11 @@
       <c r="D529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:4">
+      <c r="E529">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>120</v>
       </c>
@@ -8450,8 +9443,11 @@
       <c r="D530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:4">
+      <c r="E530">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>119</v>
       </c>
@@ -8464,8 +9460,11 @@
       <c r="D531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:4">
+      <c r="E531">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>118</v>
       </c>
@@ -8478,8 +9477,11 @@
       <c r="D532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:4">
+      <c r="E532">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>117</v>
       </c>
@@ -8492,8 +9494,11 @@
       <c r="D533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:4">
+      <c r="E533">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>116</v>
       </c>
@@ -8506,8 +9511,11 @@
       <c r="D534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:4">
+      <c r="E534">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>115</v>
       </c>
@@ -8520,8 +9528,11 @@
       <c r="D535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:4">
+      <c r="E535">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>114</v>
       </c>
@@ -8534,8 +9545,11 @@
       <c r="D536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:4">
+      <c r="E536">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>113</v>
       </c>
@@ -8548,8 +9562,11 @@
       <c r="D537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:4">
+      <c r="E537">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>112</v>
       </c>
@@ -8562,8 +9579,11 @@
       <c r="D538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:4">
+      <c r="E538">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>111</v>
       </c>
@@ -8576,8 +9596,11 @@
       <c r="D539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:4">
+      <c r="E539">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>110</v>
       </c>
@@ -8590,8 +9613,11 @@
       <c r="D540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:4">
+      <c r="E540">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>109</v>
       </c>
@@ -8604,8 +9630,11 @@
       <c r="D541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:4">
+      <c r="E541">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>108</v>
       </c>
@@ -8618,8 +9647,11 @@
       <c r="D542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:4">
+      <c r="E542">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>107</v>
       </c>
@@ -8632,8 +9664,11 @@
       <c r="D543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:4">
+      <c r="E543">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>106</v>
       </c>
@@ -8646,8 +9681,11 @@
       <c r="D544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:4">
+      <c r="E544">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>105</v>
       </c>
@@ -8660,8 +9698,11 @@
       <c r="D545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:4">
+      <c r="E545">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>104</v>
       </c>
@@ -8674,8 +9715,11 @@
       <c r="D546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:4">
+      <c r="E546">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>103</v>
       </c>
@@ -8688,8 +9732,11 @@
       <c r="D547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:4">
+      <c r="E547">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>102</v>
       </c>
@@ -8702,8 +9749,11 @@
       <c r="D548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:4">
+      <c r="E548">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>101</v>
       </c>
@@ -8716,8 +9766,11 @@
       <c r="D549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:4">
+      <c r="E549">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>100</v>
       </c>
@@ -8730,23 +9783,12 @@
       <c r="D550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" t="s">
-        <v>4</v>
-      </c>
-      <c r="B551">
-        <v>0</v>
-      </c>
-      <c r="C551">
-        <v>216355</v>
-      </c>
-      <c r="D551">
-        <v>0</v>
+      <c r="E550">
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>